--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D885317-4F9E-4C39-AB16-C34510100228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F48C20-3FB9-4EB8-B85D-A3BBA0FF1DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
+    <sheet name="Czech" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>Wg</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>Belgium Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1731</t>
   </si>
 </sst>
 </file>
@@ -623,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,4 +733,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5810FBF-C9C1-453B-B99E-77C1093E7393}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F48C20-3FB9-4EB8-B85D-A3BBA0FF1DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9571B-C410-4EA9-9F2C-6CD2DB1FE925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>TXG Node</t>
   </si>
   <si>
-    <t>MOXA Node</t>
-  </si>
-  <si>
     <t>Other Nodes</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>NGC-3477/T1731</t>
+  </si>
+  <si>
+    <t>BACnet Interface</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B861310-CF6A-4AD9-AB70-EC9709296A66}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -580,7 +580,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -595,12 +595,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +628,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -692,7 +692,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,12 +707,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,7 +722,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5810FBF-C9C1-453B-B99E-77C1093E7393}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -804,7 +804,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -819,12 +819,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F9571B-C410-4EA9-9F2C-6CD2DB1FE925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C082EFC-EC29-47CF-A225-BD7A290CAE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -92,6 +93,12 @@
   </si>
   <si>
     <t>BACnet Interface</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2343/T2641</t>
   </si>
 </sst>
 </file>
@@ -515,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B861310-CF6A-4AD9-AB70-EC9709296A66}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,4 +852,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618A85D-8E29-4D3B-8C84-C942A4D6AB30}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C082EFC-EC29-47CF-A225-BD7A290CAE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9D80C-4FBA-45C9-AC21-7AE6F1F9A9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -99,6 +100,12 @@
   </si>
   <si>
     <t>NGC-3476/T2343/T2641</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2403/2441</t>
   </si>
 </sst>
 </file>
@@ -635,7 +642,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618A85D-8E29-4D3B-8C84-C942A4D6AB30}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -959,4 +966,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5773E9A-618C-458D-A371-CE9B120C7ECE}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9D80C-4FBA-45C9-AC21-7AE6F1F9A9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BAEE64-9241-4BA0-AF56-B93550EB39D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B861310-CF6A-4AD9-AB70-EC9709296A66}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,16 +614,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -642,7 +637,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5773E9A-618C-458D-A371-CE9B120C7ECE}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BAEE64-9241-4BA0-AF56-B93550EB39D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD617A4-F1A6-4B6E-BCE6-B6D159DFC4C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>NGC-3479/T2403/2441</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2930/T3219/T3183/T3238 </t>
   </si>
 </sst>
 </file>
@@ -529,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B861310-CF6A-4AD9-AB70-EC9709296A66}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5773E9A-618C-458D-A371-CE9B120C7ECE}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1072,4 +1079,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D81BE5-ADE3-4102-BC5C-8A7321334914}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD617A4-F1A6-4B6E-BCE6-B6D159DFC4C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83414BFA-DF48-4CA0-A585-ECCCAF3BC1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
+    <sheet name="Italy" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-2930/T3219/T3183/T3238 </t>
+  </si>
+  <si>
+    <t>NGC-3145/T2153/T2218/T2456</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
   </si>
 </sst>
 </file>
@@ -202,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -218,6 +225,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1085,6 +1095,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D81BE5-ADE3-4102-BC5C-8A7321334914}">
   <dimension ref="A1:D13"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F201AA3-E6D2-47F5-B196-7A8CFAF0260E}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1110,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1131,8 +1253,8 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83414BFA-DF48-4CA0-A585-ECCCAF3BC1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F65C97-678F-4DBD-890F-4DA8ECB86C03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
+    <sheet name="Spain" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>Italy Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2019/T2066/T2046</t>
   </si>
 </sst>
 </file>
@@ -221,13 +228,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -559,12 +566,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -573,10 +580,10 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -666,12 +673,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -680,10 +687,10 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -778,12 +785,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -792,10 +799,10 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -890,12 +897,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -904,10 +911,10 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -996,12 +1003,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1010,10 +1017,10 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1108,12 +1115,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1122,10 +1129,10 @@
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1141,7 +1148,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="5"/>
@@ -1207,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F201AA3-E6D2-47F5-B196-7A8CFAF0260E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,12 +1227,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1234,10 +1241,10 @@
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1262,6 +1269,117 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B7376-884D-42D4-A19B-DA8A8FC49E7E}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F65C97-678F-4DBD-890F-4DA8ECB86C03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8FC1C7-E87E-4169-8FBA-9538BB456CEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>NGC-3103/T2019/T2066/T2046</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3290</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B7376-884D-42D4-A19B-DA8A8FC49E7E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,4 +1438,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DA5A6-6381-4AD2-B497-E6AB88007A10}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8FC1C7-E87E-4169-8FBA-9538BB456CEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07BA13B-7F72-423C-B49F-5A416EFCE977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -134,6 +135,12 @@
   </si>
   <si>
     <t>NGC-3191/T3290</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2414</t>
   </si>
 </sst>
 </file>
@@ -663,6 +670,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC048DE-FA68-4878-B722-562D6E236015}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D13"/>
@@ -1444,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DA5A6-6381-4AD2-B497-E6AB88007A10}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07BA13B-7F72-423C-B49F-5A416EFCE977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8C512-B34C-43BE-B081-234DC6FB2FEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
     <sheet name="Croatia" sheetId="15" r:id="rId10"/>
+    <sheet name="Greece" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>NGC-3139/T2414</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3164</t>
   </si>
 </sst>
 </file>
@@ -674,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC048DE-FA68-4878-B722-562D6E236015}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,6 +735,117 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9B67AB-18F9-44E6-ADD8-DE08AE1334B3}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8C512-B34C-43BE-B081-234DC6FB2FEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2002B1-6E05-456E-B155-41C415E0A712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
     <sheet name="Croatia" sheetId="15" r:id="rId10"/>
     <sheet name="Greece" sheetId="16" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="17" r:id="rId12"/>
+    <sheet name="Austria" sheetId="18" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -148,6 +151,21 @@
   </si>
   <si>
     <t>NGC-4119/T3164</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2175</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2271</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2748</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -792,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9B67AB-18F9-44E6-ADD8-DE08AE1334B3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -839,6 +857,337 @@
       </c>
       <c r="B4" t="s">
         <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5EBA7C-986F-4ACF-9356-6DD26C229063}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6020970C-041C-4210-8B7A-2B3693A11CBA}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46555A71-D9BE-4DC6-ABC0-92A67262A5BA}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2002B1-6E05-456E-B155-41C415E0A712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A0F84-BC26-4D54-9927-6F892CAFA16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="17" r:id="rId12"/>
     <sheet name="Austria" sheetId="18" r:id="rId13"/>
     <sheet name="Denmark" sheetId="19" r:id="rId14"/>
+    <sheet name="Russia" sheetId="21" r:id="rId15"/>
+    <sheet name="Finland" sheetId="22" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -166,6 +169,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2897</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2940</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2989</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -921,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5EBA7C-986F-4ACF-9356-6DD26C229063}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1248,6 +1269,339 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0129E4-7576-414B-A056-A894EDC13EF8}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBC5A93-CDFA-4C33-9713-E34FFB784A54}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3142A418-27E2-42C7-A10F-3284DCBE7181}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D13"/>

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A0F84-BC26-4D54-9927-6F892CAFA16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAA71D-9E0A-4BCE-8F68-046C893C5B68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="21" r:id="rId15"/>
     <sheet name="Finland" sheetId="22" r:id="rId16"/>
     <sheet name="Hungary" sheetId="23" r:id="rId17"/>
+    <sheet name="Norway" sheetId="24" r:id="rId18"/>
+    <sheet name="Poland" sheetId="25" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
   <si>
     <t>Wg</t>
   </si>
@@ -187,6 +189,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3058</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3101</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3142A418-27E2-42C7-A10F-3284DCBE7181}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
@@ -1549,6 +1563,228 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D998F8AB-4365-4971-A655-B05A57022E6C}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A98E8D6-1CE7-4FCB-89C9-798412EF3843}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_OtherNodes.xlsx
+++ b/Test Data/Gallery_OtherNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAA71D-9E0A-4BCE-8F68-046C893C5B68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731691E-2A0A-4897-8AC7-264CB538B4CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="23" r:id="rId17"/>
     <sheet name="Norway" sheetId="24" r:id="rId18"/>
     <sheet name="Poland" sheetId="25" r:id="rId19"/>
+    <sheet name="UK" sheetId="26" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -201,6 +202,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3340</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D998F8AB-4365-4971-A655-B05A57022E6C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -1950,6 +1957,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9DC94D-1F42-4A73-8CEE-E30650AD0B1F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5810FBF-C9C1-453B-B99E-77C1093E7393}">
   <dimension ref="A1:D13"/>
